--- a/annex_global_data/data/inflation.xlsx
+++ b/annex_global_data/data/inflation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LaCie/Research/Inflation/quarterly/ReStat_global/ReStat_EMPL_IP_BDI/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomashasenzagl/Desktop/replication-hasenzagl-et-al-2020/annex_global_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF161933-D52C-4A4C-9E05-58485F717D5F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF112F3-105A-BC48-B020-4FE06004C116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="1700" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43300" yWindow="2620" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quarterly" sheetId="1" r:id="rId1"/>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1998,9 +1998,7 @@
       <c r="F23" s="2">
         <v>53.283329999999999</v>
       </c>
-      <c r="G23">
-        <v>1016</v>
-      </c>
+      <c r="G23"/>
       <c r="H23" s="2">
         <v>27.05</v>
       </c>
@@ -2036,9 +2034,7 @@
       <c r="F24" s="2">
         <v>53.542560000000002</v>
       </c>
-      <c r="G24">
-        <v>872</v>
-      </c>
+      <c r="G24"/>
       <c r="H24" s="2">
         <v>27.856999999999999</v>
       </c>
@@ -2074,9 +2070,7 @@
       <c r="F25" s="2">
         <v>53.77346</v>
       </c>
-      <c r="G25">
-        <v>894</v>
-      </c>
+      <c r="G25"/>
       <c r="H25" s="2">
         <v>27.791</v>
       </c>
@@ -2112,9 +2106,7 @@
       <c r="F26" s="2">
         <v>54.096069999999997</v>
       </c>
-      <c r="G26">
-        <v>898</v>
-      </c>
+      <c r="G26"/>
       <c r="H26" s="2">
         <v>29.193000000000001</v>
       </c>
@@ -2150,9 +2142,7 @@
       <c r="F27" s="2">
         <v>54.149360000000001</v>
       </c>
-      <c r="G27">
-        <v>734</v>
-      </c>
+      <c r="G27"/>
       <c r="H27" s="2">
         <v>17.001666666666701</v>
       </c>
@@ -2188,9 +2178,7 @@
       <c r="F28" s="2">
         <v>54.4163</v>
       </c>
-      <c r="G28">
-        <v>586</v>
-      </c>
+      <c r="G28"/>
       <c r="H28" s="2">
         <v>13.92</v>
       </c>
@@ -2226,9 +2214,7 @@
       <c r="F29" s="2">
         <v>54.88353</v>
       </c>
-      <c r="G29">
-        <v>800</v>
-      </c>
+      <c r="G29"/>
       <c r="H29" s="2">
         <v>13.86</v>
       </c>
@@ -2264,9 +2250,7 @@
       <c r="F30" s="2">
         <v>55.36692</v>
       </c>
-      <c r="G30">
-        <v>699</v>
-      </c>
+      <c r="G30"/>
       <c r="H30" s="2">
         <v>15.3783333333333</v>
       </c>
@@ -2302,9 +2286,7 @@
       <c r="F31" s="2">
         <v>55.844900000000003</v>
       </c>
-      <c r="G31">
-        <v>992</v>
-      </c>
+      <c r="G31"/>
       <c r="H31" s="2">
         <v>18.228999999999999</v>
       </c>
@@ -2340,9 +2322,7 @@
       <c r="F32" s="2">
         <v>56.569569999999999</v>
       </c>
-      <c r="G32">
-        <v>880</v>
-      </c>
+      <c r="G32"/>
       <c r="H32" s="2">
         <v>19.364000000000001</v>
       </c>
@@ -2378,9 +2358,7 @@
       <c r="F33" s="2">
         <v>57.321739999999998</v>
       </c>
-      <c r="G33">
-        <v>1045</v>
-      </c>
+      <c r="G33"/>
       <c r="H33" s="2">
         <v>20.385000000000002</v>
       </c>
@@ -2416,9 +2394,7 @@
       <c r="F34" s="2">
         <v>58.501609999999999</v>
       </c>
-      <c r="G34">
-        <v>1264</v>
-      </c>
+      <c r="G34"/>
       <c r="H34" s="2">
         <v>18.6696666666667</v>
       </c>
@@ -2454,9 +2430,7 @@
       <c r="F35" s="2">
         <v>59.396830000000001</v>
       </c>
-      <c r="G35">
-        <v>1617</v>
-      </c>
+      <c r="G35"/>
       <c r="H35" s="2">
         <v>16.713999999999999</v>
       </c>
@@ -2492,9 +2466,7 @@
       <c r="F36" s="2">
         <v>59.885019999999997</v>
       </c>
-      <c r="G36">
-        <v>1208</v>
-      </c>
+      <c r="G36"/>
       <c r="H36" s="2">
         <v>17.280999999999999</v>
       </c>
@@ -2530,9 +2502,7 @@
       <c r="F37" s="2">
         <v>60.490200000000002</v>
       </c>
-      <c r="G37">
-        <v>1270</v>
-      </c>
+      <c r="G37"/>
       <c r="H37" s="2">
         <v>15.163</v>
       </c>
@@ -2568,9 +2538,7 @@
       <c r="F38" s="2">
         <v>61.43759</v>
       </c>
-      <c r="G38">
-        <v>1543</v>
-      </c>
+      <c r="G38"/>
       <c r="H38" s="2">
         <v>14.6803333333333</v>
       </c>
@@ -2606,9 +2574,7 @@
       <c r="F39" s="2">
         <v>61.666080000000001</v>
       </c>
-      <c r="G39">
-        <v>1631</v>
-      </c>
+      <c r="G39"/>
       <c r="H39" s="2">
         <v>18.417999999999999</v>
       </c>
@@ -2644,9 +2610,7 @@
       <c r="F40" s="2">
         <v>62.248100000000001</v>
       </c>
-      <c r="G40">
-        <v>1413</v>
-      </c>
+      <c r="G40"/>
       <c r="H40" s="2">
         <v>20.359000000000002</v>
       </c>
@@ -2682,9 +2646,7 @@
       <c r="F41" s="2">
         <v>62.092080000000003</v>
       </c>
-      <c r="G41">
-        <v>1420</v>
-      </c>
+      <c r="G41"/>
       <c r="H41" s="2">
         <v>19.253333333333298</v>
       </c>
@@ -2720,9 +2682,7 @@
       <c r="F42" s="2">
         <v>62.767719999999997</v>
       </c>
-      <c r="G42">
-        <v>1592</v>
-      </c>
+      <c r="G42"/>
       <c r="H42" s="2">
         <v>20.332999999999998</v>
       </c>
@@ -2758,9 +2718,7 @@
       <c r="F43" s="2">
         <v>63.038029999999999</v>
       </c>
-      <c r="G43">
-        <v>1529</v>
-      </c>
+      <c r="G43"/>
       <c r="H43" s="2">
         <v>21.7223333333333</v>
       </c>
@@ -2796,9 +2754,7 @@
       <c r="F44" s="2">
         <v>63.31662</v>
       </c>
-      <c r="G44">
-        <v>1089</v>
-      </c>
+      <c r="G44"/>
       <c r="H44" s="2">
         <v>17.8966666666667</v>
       </c>
@@ -2834,9 +2790,7 @@
       <c r="F45" s="2">
         <v>63.781280000000002</v>
       </c>
-      <c r="G45">
-        <v>1168</v>
-      </c>
+      <c r="G45"/>
       <c r="H45" s="2">
         <v>26.499666666666698</v>
       </c>
@@ -2872,9 +2826,7 @@
       <c r="F46" s="2">
         <v>63.300690000000003</v>
       </c>
-      <c r="G46">
-        <v>1446</v>
-      </c>
+      <c r="G46"/>
       <c r="H46" s="2">
         <v>31.853000000000002</v>
       </c>
@@ -2910,9 +2862,7 @@
       <c r="F47" s="2">
         <v>62.733409999999999</v>
       </c>
-      <c r="G47">
-        <v>1609</v>
-      </c>
+      <c r="G47"/>
       <c r="H47" s="2">
         <v>21.780666666666701</v>
       </c>
@@ -2948,9 +2898,7 @@
       <c r="F48" s="2">
         <v>63.57452</v>
       </c>
-      <c r="G48">
-        <v>1703</v>
-      </c>
+      <c r="G48"/>
       <c r="H48" s="2">
         <v>20.752666666666698</v>
       </c>
@@ -2986,9 +2934,7 @@
       <c r="F49" s="2">
         <v>63.817039999999999</v>
       </c>
-      <c r="G49">
-        <v>1524</v>
-      </c>
+      <c r="G49"/>
       <c r="H49" s="2">
         <v>21.655000000000001</v>
       </c>
@@ -3024,9 +2970,7 @@
       <c r="F50" s="2">
         <v>63.506169999999997</v>
       </c>
-      <c r="G50">
-        <v>1494</v>
-      </c>
+      <c r="G50"/>
       <c r="H50" s="2">
         <v>21.7366666666667</v>
       </c>
@@ -3062,9 +3006,7 @@
       <c r="F51" s="2">
         <v>64.160769999999999</v>
       </c>
-      <c r="G51">
-        <v>1180</v>
-      </c>
+      <c r="G51"/>
       <c r="H51" s="2">
         <v>18.910333333333298</v>
       </c>
@@ -3100,9 +3042,7 @@
       <c r="F52" s="2">
         <v>64.191689999999994</v>
       </c>
-      <c r="G52">
-        <v>1091</v>
-      </c>
+      <c r="G52"/>
       <c r="H52" s="2">
         <v>21.186</v>
       </c>
@@ -3138,9 +3078,7 @@
       <c r="F53" s="2">
         <v>64.415989999999994</v>
       </c>
-      <c r="G53">
-        <v>1041</v>
-      </c>
+      <c r="G53"/>
       <c r="H53" s="2">
         <v>21.6703333333333</v>
       </c>
@@ -3176,9 +3114,7 @@
       <c r="F54" s="2">
         <v>64.116140000000001</v>
       </c>
-      <c r="G54">
-        <v>1373</v>
-      </c>
+      <c r="G54"/>
       <c r="H54" s="2">
         <v>20.478999999999999</v>
       </c>
@@ -3214,9 +3150,7 @@
       <c r="F55" s="2">
         <v>65.014880000000005</v>
       </c>
-      <c r="G55">
-        <v>1503</v>
-      </c>
+      <c r="G55"/>
       <c r="H55" s="2">
         <v>19.824999999999999</v>
       </c>
@@ -3252,9 +3186,7 @@
       <c r="F56" s="2">
         <v>65.157420000000002</v>
       </c>
-      <c r="G56">
-        <v>1473</v>
-      </c>
+      <c r="G56"/>
       <c r="H56" s="2">
         <v>19.760000000000002</v>
       </c>
@@ -3290,9 +3222,7 @@
       <c r="F57" s="2">
         <v>65.330889999999997</v>
       </c>
-      <c r="G57">
-        <v>1415</v>
-      </c>
+      <c r="G57"/>
       <c r="H57" s="2">
         <v>17.796333333333301</v>
       </c>
@@ -3328,9 +3258,7 @@
       <c r="F58" s="2">
         <v>65.910409999999999</v>
       </c>
-      <c r="G58">
-        <v>1215</v>
-      </c>
+      <c r="G58"/>
       <c r="H58" s="2">
         <v>16.451333333333299</v>
       </c>
@@ -3366,9 +3294,7 @@
       <c r="F59" s="2">
         <v>66.620170000000002</v>
       </c>
-      <c r="G59">
-        <v>1206</v>
-      </c>
+      <c r="G59"/>
       <c r="H59" s="2">
         <v>14.813333333333301</v>
       </c>
@@ -3404,9 +3330,7 @@
       <c r="F60" s="2">
         <v>67.903859999999995</v>
       </c>
-      <c r="G60">
-        <v>1334</v>
-      </c>
+      <c r="G60"/>
       <c r="H60" s="2">
         <v>17.776666666666699</v>
       </c>
@@ -3442,9 +3366,7 @@
       <c r="F61" s="2">
         <v>69.021960000000007</v>
       </c>
-      <c r="G61">
-        <v>1656</v>
-      </c>
+      <c r="G61"/>
       <c r="H61" s="2">
         <v>18.496666666666702</v>
       </c>
@@ -3480,9 +3402,7 @@
       <c r="F62" s="2">
         <v>70.929060000000007</v>
       </c>
-      <c r="G62">
-        <v>1965</v>
-      </c>
+      <c r="G62"/>
       <c r="H62" s="2">
         <v>17.656666666666698</v>
       </c>
@@ -3518,9 +3438,7 @@
       <c r="F63" s="2">
         <v>70.779039999999995</v>
       </c>
-      <c r="G63">
-        <v>2209</v>
-      </c>
+      <c r="G63"/>
       <c r="H63" s="2">
         <v>18.356666666666701</v>
       </c>
@@ -3556,9 +3474,7 @@
       <c r="F64" s="2">
         <v>71.170810000000003</v>
       </c>
-      <c r="G64">
-        <v>1979</v>
-      </c>
+      <c r="G64"/>
       <c r="H64" s="2">
         <v>19.343333333333302</v>
       </c>
@@ -3594,9 +3510,7 @@
       <c r="F65" s="2">
         <v>71.54795</v>
       </c>
-      <c r="G65">
-        <v>1920</v>
-      </c>
+      <c r="G65"/>
       <c r="H65" s="2">
         <v>17.8533333333333</v>
       </c>
@@ -3632,9 +3546,7 @@
       <c r="F66" s="2">
         <v>72.477369999999993</v>
       </c>
-      <c r="G66">
-        <v>1604</v>
-      </c>
+      <c r="G66"/>
       <c r="H66" s="2">
         <v>18.156666666666698</v>
       </c>
@@ -3670,9 +3582,7 @@
       <c r="F67" s="2">
         <v>72.677149999999997</v>
       </c>
-      <c r="G67">
-        <v>1448</v>
-      </c>
+      <c r="G67"/>
       <c r="H67" s="2">
         <v>19.77</v>
       </c>
@@ -3708,9 +3618,7 @@
       <c r="F68" s="2">
         <v>73.561549999999997</v>
       </c>
-      <c r="G68">
-        <v>1193</v>
-      </c>
+      <c r="G68"/>
       <c r="H68" s="2">
         <v>21.7566666666667</v>
       </c>
@@ -3746,9 +3654,7 @@
       <c r="F69" s="2">
         <v>74.469319999999996</v>
       </c>
-      <c r="G69">
-        <v>1000</v>
-      </c>
+      <c r="G69"/>
       <c r="H69" s="2">
         <v>22.4233333333333</v>
       </c>
@@ -3784,9 +3690,7 @@
       <c r="F70" s="2">
         <v>75.424189999999996</v>
       </c>
-      <c r="G70">
-        <v>1516</v>
-      </c>
+      <c r="G70"/>
       <c r="H70" s="2">
         <v>24.6666666666667</v>
       </c>
@@ -3822,9 +3726,7 @@
       <c r="F71" s="2">
         <v>76.708240000000004</v>
       </c>
-      <c r="G71">
-        <v>1513</v>
-      </c>
+      <c r="G71"/>
       <c r="H71" s="2">
         <v>22.79</v>
       </c>
@@ -3860,9 +3762,7 @@
       <c r="F72" s="2">
         <v>77.985669999999999</v>
       </c>
-      <c r="G72">
-        <v>1320</v>
-      </c>
+      <c r="G72"/>
       <c r="H72" s="2">
         <v>19.906666666666698</v>
       </c>
@@ -3898,9 +3798,7 @@
       <c r="F73" s="2">
         <v>79.010069999999999</v>
       </c>
-      <c r="G73">
-        <v>1277</v>
-      </c>
+      <c r="G73"/>
       <c r="H73" s="2">
         <v>19.783333333333299</v>
       </c>
@@ -3936,9 +3834,7 @@
       <c r="F74" s="2">
         <v>79.373779999999996</v>
       </c>
-      <c r="G74">
-        <v>1231</v>
-      </c>
+      <c r="G74"/>
       <c r="H74" s="2">
         <v>19.9166666666667</v>
       </c>
@@ -3974,9 +3870,7 @@
       <c r="F75" s="2">
         <v>79.579729999999998</v>
       </c>
-      <c r="G75">
-        <v>966</v>
-      </c>
+      <c r="G75"/>
       <c r="H75" s="2">
         <v>15.93</v>
       </c>
@@ -4012,9 +3906,7 @@
       <c r="F76" s="2">
         <v>79.553420000000003</v>
       </c>
-      <c r="G76">
-        <v>856</v>
-      </c>
+      <c r="G76"/>
       <c r="H76" s="2">
         <v>14.6533333333333</v>
       </c>
@@ -4050,9 +3942,7 @@
       <c r="F77" s="2">
         <v>79.930279999999996</v>
       </c>
-      <c r="G77">
-        <v>946</v>
-      </c>
+      <c r="G77"/>
       <c r="H77" s="2">
         <v>14.13</v>
       </c>
@@ -4088,9 +3978,7 @@
       <c r="F78" s="2">
         <v>80.201239999999999</v>
       </c>
-      <c r="G78">
-        <v>794</v>
-      </c>
+      <c r="G78"/>
       <c r="H78" s="2">
         <v>12.84</v>
       </c>
@@ -4126,9 +4014,7 @@
       <c r="F79" s="2">
         <v>81.148219999999995</v>
       </c>
-      <c r="G79">
-        <v>902</v>
-      </c>
+      <c r="G79"/>
       <c r="H79" s="2">
         <v>13.046666666666701</v>
       </c>
@@ -4164,9 +4050,7 @@
       <c r="F80" s="2">
         <v>82.002560000000003</v>
       </c>
-      <c r="G80">
-        <v>970</v>
-      </c>
+      <c r="G80"/>
       <c r="H80" s="2">
         <v>17.66</v>
       </c>
@@ -4202,9 +4086,7 @@
       <c r="F81" s="2">
         <v>83.467060000000004</v>
       </c>
-      <c r="G81">
-        <v>1243</v>
-      </c>
+      <c r="G81"/>
       <c r="H81" s="2">
         <v>21.7366666666667</v>
       </c>
@@ -4240,9 +4122,7 @@
       <c r="F82" s="2">
         <v>85.532560000000004</v>
       </c>
-      <c r="G82">
-        <v>1319</v>
-      </c>
+      <c r="G82"/>
       <c r="H82" s="2">
         <v>24.563333333333301</v>
       </c>
@@ -4278,9 +4158,7 @@
       <c r="F83" s="2">
         <v>86.065070000000006</v>
       </c>
-      <c r="G83">
-        <v>1660</v>
-      </c>
+      <c r="G83"/>
       <c r="H83" s="2">
         <v>28.8066666666667</v>
       </c>
@@ -4316,9 +4194,7 @@
       <c r="F84" s="2">
         <v>87.443349999999995</v>
       </c>
-      <c r="G84">
-        <v>1616</v>
-      </c>
+      <c r="G84"/>
       <c r="H84" s="2">
         <v>28.783333333333299</v>
       </c>
@@ -4354,9 +4230,7 @@
       <c r="F85" s="2">
         <v>87.989270000000005</v>
       </c>
-      <c r="G85">
-        <v>1739</v>
-      </c>
+      <c r="G85"/>
       <c r="H85" s="2">
         <v>31.623333333333299</v>
       </c>
@@ -4392,9 +4266,7 @@
       <c r="F86" s="2">
         <v>88.918909999999997</v>
       </c>
-      <c r="G86">
-        <v>1599</v>
-      </c>
+      <c r="G86"/>
       <c r="H86" s="2">
         <v>31.98</v>
       </c>
@@ -4430,9 +4302,7 @@
       <c r="F87" s="2">
         <v>87.630679999999998</v>
       </c>
-      <c r="G87">
-        <v>1438</v>
-      </c>
+      <c r="G87"/>
       <c r="H87" s="2">
         <v>28.81</v>
       </c>
@@ -4468,9 +4338,7 @@
       <c r="F88" s="2">
         <v>87.014679999999998</v>
       </c>
-      <c r="G88">
-        <v>1386</v>
-      </c>
+      <c r="G88"/>
       <c r="H88" s="2">
         <v>27.883333333333301</v>
       </c>
@@ -4506,9 +4374,7 @@
       <c r="F89" s="2">
         <v>86.290890000000005</v>
       </c>
-      <c r="G89">
-        <v>952</v>
-      </c>
+      <c r="G89"/>
       <c r="H89" s="2">
         <v>26.6</v>
       </c>
@@ -4544,9 +4410,7 @@
       <c r="F90" s="2">
         <v>85.842770000000002</v>
       </c>
-      <c r="G90">
-        <v>876</v>
-      </c>
+      <c r="G90"/>
       <c r="H90" s="2">
         <v>20.4033333333333</v>
       </c>
@@ -4582,9 +4446,7 @@
       <c r="F91" s="2">
         <v>87.361170000000001</v>
       </c>
-      <c r="G91">
-        <v>1082</v>
-      </c>
+      <c r="G91"/>
       <c r="H91" s="2">
         <v>21.61</v>
       </c>
@@ -4620,9 +4482,7 @@
       <c r="F92" s="2">
         <v>88.481049999999996</v>
       </c>
-      <c r="G92">
-        <v>1005</v>
-      </c>
+      <c r="G92"/>
       <c r="H92" s="2">
         <v>26.27</v>
       </c>
@@ -4658,9 +4518,7 @@
       <c r="F93" s="2">
         <v>89.408810000000003</v>
       </c>
-      <c r="G93">
-        <v>1367</v>
-      </c>
+      <c r="G93"/>
       <c r="H93" s="2">
         <v>28.33</v>
       </c>
@@ -4696,9 +4554,7 @@
       <c r="F94" s="2">
         <v>89.514849999999996</v>
       </c>
-      <c r="G94">
-        <v>1738</v>
-      </c>
+      <c r="G94"/>
       <c r="H94" s="2">
         <v>28.18</v>
       </c>
@@ -4734,9 +4590,7 @@
       <c r="F95" s="2">
         <v>90.541089999999997</v>
       </c>
-      <c r="G95">
-        <v>1939</v>
-      </c>
+      <c r="G95"/>
       <c r="H95" s="2">
         <v>34.119999999999997</v>
       </c>
@@ -4772,9 +4626,7 @@
       <c r="F96" s="2">
         <v>90.549040000000005</v>
       </c>
-      <c r="G96">
-        <v>2125</v>
-      </c>
+      <c r="G96"/>
       <c r="H96" s="2">
         <v>29.036666666666701</v>
       </c>
@@ -4810,9 +4662,7 @@
       <c r="F97" s="2">
         <v>91.965869999999995</v>
       </c>
-      <c r="G97">
-        <v>2993</v>
-      </c>
+      <c r="G97"/>
       <c r="H97" s="2">
         <v>30.213333333333299</v>
       </c>
@@ -4848,9 +4698,7 @@
       <c r="F98" s="2">
         <v>93.794749999999993</v>
       </c>
-      <c r="G98">
-        <v>4765</v>
-      </c>
+      <c r="G98"/>
       <c r="H98" s="2">
         <v>31.19</v>
       </c>
@@ -4886,9 +4734,7 @@
       <c r="F99" s="2">
         <v>94.842579999999998</v>
       </c>
-      <c r="G99">
-        <v>4822</v>
-      </c>
+      <c r="G99"/>
       <c r="H99" s="2">
         <v>35.256666666666703</v>
       </c>
@@ -4924,9 +4770,7 @@
       <c r="F100" s="2">
         <v>95.707149999999999</v>
       </c>
-      <c r="G100">
-        <v>3005</v>
-      </c>
+      <c r="G100"/>
       <c r="H100" s="2">
         <v>38.33</v>
       </c>
@@ -4962,9 +4806,7 @@
       <c r="F101" s="2">
         <v>96.805130000000005</v>
       </c>
-      <c r="G101">
-        <v>4105</v>
-      </c>
+      <c r="G101"/>
       <c r="H101" s="2">
         <v>43.86</v>
       </c>
@@ -5000,9 +4842,7 @@
       <c r="F102" s="2">
         <v>97.728980000000007</v>
       </c>
-      <c r="G102">
-        <v>4598</v>
-      </c>
+      <c r="G102"/>
       <c r="H102" s="2">
         <v>48.3066666666667</v>
       </c>
@@ -5038,9 +4878,7 @@
       <c r="F103" s="2">
         <v>98.779730000000001</v>
       </c>
-      <c r="G103">
-        <v>4637</v>
-      </c>
+      <c r="G103"/>
       <c r="H103" s="2">
         <v>49.706666666666699</v>
       </c>
@@ -5076,9 +4914,7 @@
       <c r="F104" s="2">
         <v>99.791139999999999</v>
       </c>
-      <c r="G104">
-        <v>2521</v>
-      </c>
+      <c r="G104"/>
       <c r="H104" s="2">
         <v>53.043333333333301</v>
       </c>
@@ -5114,9 +4950,7 @@
       <c r="F105" s="2">
         <v>100.28400000000001</v>
       </c>
-      <c r="G105">
-        <v>2907</v>
-      </c>
+      <c r="G105"/>
       <c r="H105" s="2">
         <v>63.08</v>
       </c>
@@ -5152,9 +4986,7 @@
       <c r="F106" s="2">
         <v>102.6133</v>
       </c>
-      <c r="G106">
-        <v>2407</v>
-      </c>
+      <c r="G106"/>
       <c r="H106" s="2">
         <v>60.033333333333303</v>
       </c>
@@ -5190,9 +5022,7 @@
       <c r="F107" s="2">
         <v>103.7015</v>
       </c>
-      <c r="G107">
-        <v>2496</v>
-      </c>
+      <c r="G107"/>
       <c r="H107" s="2">
         <v>63.3466666666667</v>
       </c>
@@ -5228,9 +5058,7 @@
       <c r="F108" s="2">
         <v>105.1742</v>
       </c>
-      <c r="G108">
-        <v>2964</v>
-      </c>
+      <c r="G108"/>
       <c r="H108" s="2">
         <v>70.53</v>
       </c>
@@ -5266,9 +5094,7 @@
       <c r="F109" s="2">
         <v>106.3349</v>
       </c>
-      <c r="G109">
-        <v>3944</v>
-      </c>
+      <c r="G109"/>
       <c r="H109" s="2">
         <v>70.4433333333333</v>
       </c>
@@ -5304,9 +5130,7 @@
       <c r="F110" s="2">
         <v>108.57129999999999</v>
       </c>
-      <c r="G110">
-        <v>4397</v>
-      </c>
+      <c r="G110"/>
       <c r="H110" s="2">
         <v>60.093333333333298</v>
       </c>
@@ -5342,9 +5166,7 @@
       <c r="F111" s="2">
         <v>110.15179999999999</v>
       </c>
-      <c r="G111">
-        <v>5388</v>
-      </c>
+      <c r="G111"/>
       <c r="H111" s="2">
         <v>58.13</v>
       </c>
@@ -5380,9 +5202,7 @@
       <c r="F112" s="2">
         <v>111.4787</v>
       </c>
-      <c r="G112">
-        <v>6278</v>
-      </c>
+      <c r="G112"/>
       <c r="H112" s="2">
         <v>64.97</v>
       </c>
@@ -5418,9 +5238,7 @@
       <c r="F113" s="2">
         <v>112.5314</v>
       </c>
-      <c r="G113">
-        <v>9474</v>
-      </c>
+      <c r="G113"/>
       <c r="H113" s="2">
         <v>75.5</v>
       </c>
@@ -5456,9 +5274,7 @@
       <c r="F114" s="2">
         <v>113.9851</v>
       </c>
-      <c r="G114">
-        <v>9143</v>
-      </c>
+      <c r="G114"/>
       <c r="H114" s="2">
         <v>90.85</v>
       </c>
@@ -5494,9 +5310,7 @@
       <c r="F115" s="2">
         <v>114.6896</v>
       </c>
-      <c r="G115">
-        <v>8081</v>
-      </c>
+      <c r="G115"/>
       <c r="H115" s="2">
         <v>97.953333333333305</v>
       </c>
@@ -5532,9 +5346,7 @@
       <c r="F116" s="2">
         <v>114.4692</v>
       </c>
-      <c r="G116">
-        <v>9589</v>
-      </c>
+      <c r="G116"/>
       <c r="H116" s="2">
         <v>123.963333333333</v>
       </c>
@@ -5570,9 +5382,7 @@
       <c r="F117" s="2">
         <v>111.54130000000001</v>
       </c>
-      <c r="G117">
-        <v>3217</v>
-      </c>
+      <c r="G117"/>
       <c r="H117" s="2">
         <v>117.98333333333299</v>
       </c>
@@ -5608,9 +5418,7 @@
       <c r="F118" s="2">
         <v>103.4164</v>
       </c>
-      <c r="G118">
-        <v>774</v>
-      </c>
+      <c r="G118"/>
       <c r="H118" s="2">
         <v>58.37</v>
       </c>
@@ -5646,9 +5454,7 @@
       <c r="F119" s="2">
         <v>100.8404</v>
       </c>
-      <c r="G119">
-        <v>1615</v>
-      </c>
+      <c r="G119"/>
       <c r="H119" s="2">
         <v>42.96</v>
       </c>
@@ -5684,9 +5490,7 @@
       <c r="F120" s="2">
         <v>102.5956</v>
       </c>
-      <c r="G120">
-        <v>3757</v>
-      </c>
+      <c r="G120"/>
       <c r="H120" s="2">
         <v>59.543333333333301</v>
       </c>
@@ -5722,9 +5526,7 @@
       <c r="F121" s="2">
         <v>105.5352</v>
       </c>
-      <c r="G121">
-        <v>2220</v>
-      </c>
+      <c r="G121"/>
       <c r="H121" s="2">
         <v>68.203333333333305</v>
       </c>
@@ -5760,9 +5562,7 @@
       <c r="F122" s="2">
         <v>107.667</v>
       </c>
-      <c r="G122">
-        <v>3005</v>
-      </c>
+      <c r="G122"/>
       <c r="H122" s="2">
         <v>76.066666666666706</v>
       </c>
@@ -5798,9 +5598,7 @@
       <c r="F123" s="2">
         <v>111.12949999999999</v>
       </c>
-      <c r="G123">
-        <v>2998</v>
-      </c>
+      <c r="G123"/>
       <c r="H123" s="2">
         <v>78.626666666666694</v>
       </c>
@@ -5836,9 +5634,7 @@
       <c r="F124" s="2">
         <v>112.3613</v>
       </c>
-      <c r="G124">
-        <v>2406</v>
-      </c>
+      <c r="G124"/>
       <c r="H124" s="2">
         <v>77.89</v>
       </c>
@@ -5874,9 +5670,7 @@
       <c r="F125" s="2">
         <v>113.5702</v>
       </c>
-      <c r="G125">
-        <v>2446</v>
-      </c>
+      <c r="G125"/>
       <c r="H125" s="2">
         <v>76.1666666666667</v>
       </c>
@@ -5912,9 +5706,7 @@
       <c r="F126" s="2">
         <v>116.1199</v>
       </c>
-      <c r="G126">
-        <v>1773</v>
-      </c>
+      <c r="G126"/>
       <c r="H126" s="2">
         <v>85.026666666666699</v>
       </c>
@@ -5950,9 +5742,7 @@
       <c r="F127" s="2">
         <v>117.1961</v>
       </c>
-      <c r="G127">
-        <v>1530</v>
-      </c>
+      <c r="G127"/>
       <c r="H127" s="2">
         <v>93.98</v>
       </c>
@@ -5988,9 +5778,7 @@
       <c r="F128" s="2">
         <v>117.9905</v>
       </c>
-      <c r="G128">
-        <v>1413</v>
-      </c>
+      <c r="G128"/>
       <c r="H128" s="2">
         <v>102.553333333333</v>
       </c>
@@ -6026,9 +5814,7 @@
       <c r="F129" s="2">
         <v>118.533</v>
       </c>
-      <c r="G129">
-        <v>1899</v>
-      </c>
+      <c r="G129"/>
       <c r="H129" s="2">
         <v>89.71</v>
       </c>
@@ -6064,9 +5850,7 @@
       <c r="F130" s="2">
         <v>118.4147042</v>
       </c>
-      <c r="G130">
-        <v>1738</v>
-      </c>
+      <c r="G130"/>
       <c r="H130" s="2">
         <v>94.063333333333304</v>
       </c>
@@ -6102,9 +5886,7 @@
       <c r="F131" s="2">
         <v>118.9905411</v>
       </c>
-      <c r="G131">
-        <v>934</v>
-      </c>
+      <c r="G131"/>
       <c r="H131" s="2">
         <v>102.893333333333</v>
       </c>
@@ -6140,9 +5922,7 @@
       <c r="F132" s="2">
         <v>118.3926608</v>
       </c>
-      <c r="G132">
-        <v>1004</v>
-      </c>
+      <c r="G132"/>
       <c r="H132" s="2">
         <v>93.48</v>
       </c>
@@ -6178,9 +5958,7 @@
       <c r="F133" s="2">
         <v>117.75755239999999</v>
       </c>
-      <c r="G133">
-        <v>766</v>
-      </c>
+      <c r="G133"/>
       <c r="H133" s="2">
         <v>92.27</v>
       </c>
@@ -6216,9 +5994,7 @@
       <c r="F134" s="2">
         <v>118.5728601</v>
       </c>
-      <c r="G134">
-        <v>699</v>
-      </c>
+      <c r="G134"/>
       <c r="H134" s="2">
         <v>88.16</v>
       </c>
@@ -6254,9 +6030,7 @@
       <c r="F135" s="2">
         <v>119.350385</v>
       </c>
-      <c r="G135">
-        <v>910</v>
-      </c>
+      <c r="G135"/>
       <c r="H135" s="2">
         <v>94.323333333333295</v>
       </c>
@@ -6292,9 +6066,7 @@
       <c r="F136" s="2">
         <v>119.3805364</v>
       </c>
-      <c r="G136">
-        <v>1171</v>
-      </c>
+      <c r="G136"/>
       <c r="H136" s="2">
         <v>94.223333333333301</v>
       </c>
@@ -6330,9 +6102,7 @@
       <c r="F137" s="2">
         <v>120.9989231</v>
       </c>
-      <c r="G137">
-        <v>2003</v>
-      </c>
+      <c r="G137"/>
       <c r="H137" s="2">
         <v>105.85</v>
       </c>
@@ -6368,9 +6138,7 @@
       <c r="F138" s="2">
         <v>121.2350713</v>
       </c>
-      <c r="G138">
-        <v>2277</v>
-      </c>
+      <c r="G138"/>
       <c r="H138" s="2">
         <v>97.36</v>
       </c>
@@ -6406,9 +6174,7 @@
       <c r="F139" s="2">
         <v>122.8086212</v>
       </c>
-      <c r="G139">
-        <v>1362</v>
-      </c>
+      <c r="G139"/>
       <c r="H139" s="2">
         <v>98.746666666666698</v>
       </c>
@@ -6444,9 +6210,7 @@
       <c r="F140" s="2">
         <v>123.22572649999999</v>
       </c>
-      <c r="G140">
-        <v>850</v>
-      </c>
+      <c r="G140"/>
       <c r="H140" s="2">
         <v>103.34666666666701</v>
       </c>
@@ -6482,9 +6246,7 @@
       <c r="F141" s="2">
         <v>123.4857296</v>
       </c>
-      <c r="G141">
-        <v>1063</v>
-      </c>
+      <c r="G141"/>
       <c r="H141" s="2">
         <v>97.78</v>
       </c>
@@ -6520,9 +6282,7 @@
       <c r="F142" s="2">
         <v>123.8256228</v>
       </c>
-      <c r="G142">
-        <v>782</v>
-      </c>
+      <c r="G142"/>
       <c r="H142" s="2">
         <v>73.16</v>
       </c>
@@ -6558,9 +6318,7 @@
       <c r="F143" s="2">
         <v>124.13239129999999</v>
       </c>
-      <c r="G143">
-        <v>602</v>
-      </c>
+      <c r="G143"/>
       <c r="H143" s="2">
         <v>48.64</v>
       </c>
@@ -6596,9 +6354,7 @@
       <c r="F144" s="2">
         <v>124.33509119999999</v>
       </c>
-      <c r="G144">
-        <v>800</v>
-      </c>
+      <c r="G144"/>
       <c r="H144" s="2">
         <v>57.856666666666698</v>
       </c>
@@ -6634,9 +6390,7 @@
       <c r="F145" s="2">
         <v>124.3714485</v>
       </c>
-      <c r="G145">
-        <v>900</v>
-      </c>
+      <c r="G145"/>
       <c r="H145" s="2">
         <v>46.42</v>
       </c>
@@ -6672,9 +6426,7 @@
       <c r="F146" s="2">
         <v>124.012759</v>
       </c>
-      <c r="G146">
-        <v>478</v>
-      </c>
+      <c r="G146"/>
       <c r="H146" s="2">
         <v>42.023333333333298</v>
       </c>
@@ -6710,9 +6462,7 @@
       <c r="F147" s="2">
         <v>125.2807243</v>
       </c>
-      <c r="G147">
-        <v>429</v>
-      </c>
+      <c r="G147"/>
       <c r="H147" s="2">
         <v>33.356666666666698</v>
       </c>
@@ -6748,9 +6498,7 @@
       <c r="F148" s="2">
         <v>126.3168256</v>
       </c>
-      <c r="G148">
-        <v>660</v>
-      </c>
+      <c r="G148"/>
       <c r="H148" s="2">
         <v>45.44</v>
       </c>
@@ -6786,9 +6534,7 @@
       <c r="F149" s="2">
         <v>125.961485</v>
       </c>
-      <c r="G149">
-        <v>875</v>
-      </c>
+      <c r="G149"/>
       <c r="H149" s="2">
         <v>44.89</v>
       </c>
@@ -6824,9 +6570,7 @@
       <c r="F150" s="2">
         <v>126.8890248</v>
       </c>
-      <c r="G150">
-        <v>961</v>
-      </c>
+      <c r="G150"/>
       <c r="H150" s="2">
         <v>49.2</v>
       </c>
@@ -6862,9 +6606,7 @@
       <c r="F151" s="2">
         <v>129.01558159999999</v>
       </c>
-      <c r="G151">
-        <v>1297</v>
-      </c>
+      <c r="G151"/>
       <c r="H151" s="2">
         <v>51.8333333333333</v>
       </c>
@@ -6900,9 +6642,7 @@
       <c r="F152" s="2">
         <v>129.47927129999999</v>
       </c>
-      <c r="G152">
-        <v>901</v>
-      </c>
+      <c r="G152"/>
       <c r="H152" s="2">
         <v>48.26</v>
       </c>
@@ -6938,9 +6678,7 @@
       <c r="F153" s="2">
         <v>130.46378519999999</v>
       </c>
-      <c r="G153">
-        <v>1356</v>
-      </c>
+      <c r="G153"/>
       <c r="H153" s="2">
         <v>48.163333333333298</v>
       </c>
@@ -6976,9 +6714,7 @@
       <c r="F154" s="2">
         <v>131.96378720000001</v>
       </c>
-      <c r="G154">
-        <v>1366</v>
-      </c>
+      <c r="G154"/>
       <c r="H154" s="2">
         <v>55.386666666666699</v>
       </c>
@@ -7014,9 +6750,7 @@
       <c r="F155" s="2">
         <v>132.44750490000001</v>
       </c>
-      <c r="G155">
-        <v>1055</v>
-      </c>
+      <c r="G155"/>
       <c r="H155" s="2">
         <v>62.876666666666701</v>
       </c>
@@ -7052,9 +6786,7 @@
       <c r="F156" s="2">
         <v>132.70481129999999</v>
       </c>
-      <c r="G156">
-        <v>1385</v>
-      </c>
+      <c r="G156"/>
       <c r="H156" s="2">
         <v>67.893333333333302</v>
       </c>
